--- a/Question_Set2/Programming skills/SQLite (Coding) Intermediate-Level Querying.xlsx
+++ b/Question_Set2/Programming skills/SQLite (Coding) Intermediate-Level Querying.xlsx
@@ -16,23 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': 'At a central clearing facility for banks, a database is being set up to help inter-bank money transfers using the swift codes of different banks. The bank data is organized in two tables: BANKS and SWIFTCODES . The structure of the tables, their relationship with one another, and sample data from them are shown below.BANKS table:NameData typePrimary KeyForeign KeyBNK_IDINTEGER🔑BNK_NAMEVARCHAR (50)BNK_COUNTRYVARCHAR (50)BNK_SWIFTCODEVARCHAR (11)BNK_IDBNK_NAMEBNK_COUNTRYBNK_SWIFTCODE1WFB BANK, INC.United StatesNULL2H.D.F.C. BANKIndiaNULLSWIFTCODES table:NameData typePrimary KeyForeign KeySC_IDINTEGER🔑SC_BANKIDINTEGER🔗SC_CODEVARCHAR (11)🔗 FOREIGN KEY = (SC_BANKID) REFERENCES BANKS (BNK_ID)SC_IDSC_BANKIDSC_CODE11FDACPREFM22ASDFAGYTNote that the data provided is only sample data. Keep in mind that the full database has more rows of data in it, and your queries must return the correct results for all data. You are required to carry out the following tasks: Task 1:Convert all country names in the BANKS table into uppercase formatting (all capital letters). Sample result:BNK_IDBNK_NAMEBNK_COUNTRYBNK_SWIFTCODE1WFB BANK, INC.UNITED STATESNULL2H.D.F.C. BANKINDIANULLTask 2:Clean up the BNK_BANKNAME column by eliminating all full stops (“.”) and commas (“,”) from the bank name values. Sample result:BNK_IDBNK_NAMEBNK_COUNTRYBNK_SWIFTCODE1WFB BANK INCUNITED STATESNULL2HDFC BANKINDIANULLTask 3:Currently, the Swift Codes in the BANKS table are NULL. Replace the NULL values with the Swift Codes given in the SWIFTCODES table. Sample result:BNK_IDBNK_NAMEBNK_COUNTRYBNK_SWIFTCODE1WFB BANK INCUNITED STATESFDACPREFM2HDFC BANKINDIAASDFAGYT', 'ques_type': None, 'options': [], 'score': None}]</t>
+    <t>questions = [
+    {
+        "title": "At a central clearing facility for banks, a database is being set up to help inter-bank money transfers using the swift codes of different banks. The bank data is organized in two tables: BANKS and SWIFTCODES . The structure of the tables, their relationship with one another, and sample data from them are shown below.BANKS table:NameData typePrimary KeyForeign KeyBNK_IDINTEGER\ud83d\udd11BNK_NAMEVARCHAR (50)BNK_COUNTRYVARCHAR (50)BNK_SWIFTCODEVARCHAR (11)BNK_IDBNK_NAMEBNK_COUNTRYBNK_SWIFTCODE1WFB BANK, INC.United StatesNULL2H.D.F.C. BANKIndiaNULLSWIFTCODES table:NameData typePrimary KeyForeign KeySC_IDINTEGER\ud83d\udd11SC_BANKIDINTEGER\ud83d\udd17SC_CODEVARCHAR (11)\ud83d\udd17 FOREIGN KEY = (SC_BANKID) REFERENCES BANKS (BNK_ID)SC_IDSC_BANKIDSC_CODE11FDACPREFM22ASDFAGYTNote that the data provided is only sample data. Keep in mind that the full database has more rows of data in it, and your queries must return the correct results for all data. You are required to carry out the following tasks: Task 1:Convert all country names in the BANKS table into uppercase formatting (all capital letters). Sample result:BNK_IDBNK_NAMEBNK_COUNTRYBNK_SWIFTCODE1WFB BANK, INC.UNITED STATESNULL2H.D.F.C. BANKINDIANULLTask 2:Clean up the BNK_BANKNAME column by eliminating all full stops (\u201c.\u201d) and commas (\u201c,\u201d) from the bank name values. Sample result:BNK_IDBNK_NAMEBNK_COUNTRYBNK_SWIFTCODE1WFB BANK INCUNITED STATESNULL2HDFC BANKINDIANULLTask 3:Currently, the Swift Codes in the BANKS table are NULL. Replace the NULL values with the Swift Codes given in the SWIFTCODES table. Sample result:BNK_IDBNK_NAMEBNK_COUNTRYBNK_SWIFTCODE1WFB BANK INCUNITED STATESFDACPREFM2HDFC BANKINDIAASDFAGYT",
+        "ques_type": null,
+        "options": [],
+        "score": null
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +47,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +55,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +355,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
